--- a/Lab 1.3/Requirements Linkage Traceability Matrix.xlsx
+++ b/Lab 1.3/Requirements Linkage Traceability Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quang Duong\UIT\Third year\First semester\Requirement Engineering\SE357-Pratice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A1FE8C-70EB-4430-A9B9-D37B50FA2710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFC849-812B-481D-B5BA-2912ED504007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="2988" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="3">
   <si>
     <t>R</t>
   </si>
@@ -84,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,7 +379,7 @@
     <col min="1" max="1" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -415,16 +416,28 @@
       <c r="L1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -433,8 +446,12 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -449,26 +466,34 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -483,8 +508,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -496,15 +525,15 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -516,33 +545,45 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -551,20 +592,20 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -572,21 +613,27 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -594,23 +641,21 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -624,9 +669,103 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab 1.3/Requirements Linkage Traceability Matrix.xlsx
+++ b/Lab 1.3/Requirements Linkage Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quang Duong\UIT\Third year\First semester\Requirement Engineering\SE357-Pratice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFC849-812B-481D-B5BA-2912ED504007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F278E-14F9-487E-AF61-06809AD62B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -80,14 +80,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,57 +404,63 @@
     <col min="1" max="1" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="3">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="3">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -450,8 +481,10 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -470,8 +503,10 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -492,8 +527,10 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -512,8 +549,10 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -532,8 +571,10 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -554,8 +595,10 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -582,8 +625,10 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -604,8 +649,10 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -632,8 +679,10 @@
       <c r="P10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -654,8 +703,10 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -678,9 +729,11 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
@@ -700,9 +753,11 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
@@ -722,9 +777,11 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
@@ -744,9 +801,11 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
@@ -766,6 +825,52 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
